--- a/mConfiguracion_Encuestas2/plantilla.xlsx
+++ b/mConfiguracion_Encuestas2/plantilla.xlsx
@@ -1,25 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin Uriegas\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desarrollo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0022D7-1F3A-42AE-9045-D428C9D47FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plantilla Preguntas" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Nombre de Pregunta</t>
   </si>
@@ -27,16 +38,40 @@
     <t>Tipo de Pregunta</t>
   </si>
   <si>
-    <t>¿Canción?</t>
-  </si>
-  <si>
-    <t>Niño</t>
+    <t>¿Te gusta lo que haces en tu trabajo?</t>
+  </si>
+  <si>
+    <t>¿Sabes cuáles son las actividades que realizas en tu puesto?</t>
+  </si>
+  <si>
+    <t>¿Se te han facilitado las herramientas de trabajo?</t>
+  </si>
+  <si>
+    <t>¿Cómo consideras que te has ajustado a los horarios de trabajo?</t>
+  </si>
+  <si>
+    <t>¿Cómo ha sido el trato por parte de tus compañeros?</t>
+  </si>
+  <si>
+    <t>¿Cómo ha sido el trato por parte de tu encargado?</t>
+  </si>
+  <si>
+    <t>En una escala del 1 al 5, ¿En qué nivel has sentidoel apoyo de tu encargado?</t>
+  </si>
+  <si>
+    <t>En una escala del 1 al 5, ¿Cómo has sentido la carga de trabajo?</t>
+  </si>
+  <si>
+    <t>¿Cuál es tu nivel de satisfacción en la empresa?</t>
+  </si>
+  <si>
+    <t>¿Tienes dudas, comentarios, inquietudes en las que podamos apoyarte?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -377,16 +412,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B3"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="69" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -414,6 +449,70 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
